--- a/data/trans_bre/P15_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-28,34%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>-4,81%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 4,21</t>
+          <t>-8,92; 7,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 1,3</t>
+          <t>-7,46; 5,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 3,11</t>
+          <t>-15,39; 9,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 7,25</t>
+          <t>-12,83; 9,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 27,11</t>
+          <t>-35,93; 50,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,86; 19,6</t>
+          <t>-52,04; 70,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 12,0</t>
+          <t>-34,7; 31,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 25,94</t>
+          <t>-29,33; 30,44</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-15,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-46,6%</t>
+          <t>-40,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-61,08%</t>
+          <t>-44,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,03%</t>
+          <t>-32,77%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,12; -1,6</t>
+          <t>-13,64; 0,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -1,41</t>
+          <t>-10,19; 1,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 7,86</t>
+          <t>-8,29; 13,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -0,25</t>
+          <t>-26,82; -3,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,31; -14,27</t>
+          <t>-69,54; 14,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,9; -17,33</t>
+          <t>-81,71; 44,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 28,09</t>
+          <t>-21,92; 53,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,27; -0,77</t>
+          <t>-49,6; -8,31</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,66%</t>
+          <t>-43,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>-15,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>28,61%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 3,95</t>
+          <t>-28,98; 10,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 10,04</t>
+          <t>-16,22; 12,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 14,03</t>
+          <t>-21,54; 24,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 15,73</t>
+          <t>-18,3; 33,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,65; 39,73</t>
+          <t>-82,7; 116,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,4; 302,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,47; 62,52</t>
+          <t>-54,66; 218,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,2; 49,58</t>
+          <t>-42,21; 274,73</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,78%</t>
+          <t>-20,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>-23,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,07%</t>
+          <t>-15,86%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,18</t>
+          <t>-8,96; 1,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -0,69</t>
+          <t>-6,4; 1,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 2,58</t>
+          <t>-7,88; 7,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 1,3</t>
+          <t>-14,46; 1,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,85; -1,01</t>
+          <t>-42,17; 12,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,47; -8,05</t>
+          <t>-52,46; 25,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 8,71</t>
+          <t>-20,72; 25,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 3,36</t>
+          <t>-31,67; 5,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,77%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-10,21%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-5,47%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-4,81%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.9980882123776319</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.985155654614254</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.026591628840767</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.575735956557028</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.04769667564164594</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1660591529313338</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.03003157604882098</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.04168148776358618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; 7,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 5,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,39; 9,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; 9,38</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-35,93; 50,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-52,04; 70,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-34,7; 31,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-29,33; 30,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.924699212487702</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.195368553443434</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.76871251002419</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.89045004234772</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3593137832447216</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5664392922848098</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3225088261626096</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2908315948041678</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.809426935851589</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.001191255585141</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.572756787138934</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.564743528599228</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5059975127179358</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6160096262081155</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3538130413146043</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2874288275350516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,76</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-15,75</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-40,7%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-44,8%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-32,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 0,67</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 1,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 13,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-26,82; -3,25</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-69,54; 14,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-81,71; 44,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,92; 53,61</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,6; -8,31</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.487901079659204</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.014526338064547</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.281092492034441</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-14.9821267162942</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4069953285776753</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.5293253135434745</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.03971664681516131</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3209364706757784</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,91</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-43,61%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-15,18%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>28,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.64114088359148</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.71273066576157</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.15336189370676</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-26.14503747523603</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6954268806515709</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8484760875509425</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2610266980465858</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4887464867888499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-28,98; 10,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,22; 12,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,54; 24,77</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-18,3; 33,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-82,7; 116,94</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-54,66; 218,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-42,21; 274,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.6686408305920103</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8119743960556542</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.29859523264189</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-2.220398954720443</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1492860250212754</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.314830393859909</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4646151679550256</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.05644924002409497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-20,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-23,02%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-15,86%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-9.91111981786176</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.155101928456004</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3123712861174077</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.442602041200646</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4361144237890255</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1248791758047005</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.0112026204272994</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2615697778283367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,96; 1,86</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 1,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 7,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 1,73</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-42,17; 12,8</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-52,46; 25,41</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-20,72; 25,6</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 5,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-28.98379010432975</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.59752702708534</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.36853106923233</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-19.94491056035543</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8269557909274742</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5596187713830717</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4463934635236715</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.50814984816182</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.37618306000598</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>24.48395761148976</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>31.57943160665693</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.169420201539672</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.821919030132906</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.611749298322255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-3.686939713180651</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.060399654725696</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.038305065691141</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-6.194439559115566</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2034109481257718</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2876576832148273</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0011711645181737</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1528039206496339</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.95877426868244</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.163972901692294</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.654381994100799</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.06616342603085</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.421743998003621</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5755208503035394</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2085257845682623</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3144645872294835</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.856461239250557</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.182345536525879</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.114158817934419</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.729647065425894</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1279783126562328</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1677776690309981</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2527214380480725</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.04476755946026036</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1021,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
